--- a/1.2.3.IPC_Por grupo de gasto.xlsx
+++ b/1.2.3.IPC_Por grupo de gasto.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D1EB85-FB8F-4A9D-9DB5-412F979B3D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A5A206-1048-4B9B-A294-2547A2B6010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Inflacion mensual por sector" sheetId="2" r:id="rId2"/>
-    <sheet name="Inflacion anual por sector" sheetId="3" r:id="rId3"/>
+    <sheet name="Inflacion mensual por sector 18" sheetId="2" r:id="rId2"/>
+    <sheet name="Inflacion anual por sector 18" sheetId="3" r:id="rId3"/>
+    <sheet name="Inflacion mensual por sector 21" sheetId="4" r:id="rId4"/>
+    <sheet name="Inflacion anual por sector 21" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="74">
   <si>
     <t>Índice de precios al consumidor (IPC)_Base diciembre 2008</t>
   </si>
@@ -298,6 +300,69 @@
   <si>
     <t>Mes</t>
   </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Alimentos y bebidas no alcohólicas</t>
+  </si>
+  <si>
+    <t>Bebidas alcohólicas y tabaco</t>
+  </si>
+  <si>
+    <t>Prendas de vestir y calzado</t>
+  </si>
+  <si>
+    <t>Alojamiento, agua, electricidad, gas y otros combustibles</t>
+  </si>
+  <si>
+    <t>Muebles, artículos para el hogar y para la conservación ordinaria del hogar</t>
+  </si>
+  <si>
+    <t>Información y comunicación</t>
+  </si>
+  <si>
+    <t>Recreación y cultura</t>
+  </si>
+  <si>
+    <t>Restaurantes y hoteles</t>
+  </si>
+  <si>
+    <t>Bienes y servicios diversos</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +447,10 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -412,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -494,12 +563,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -543,29 +680,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,12 +705,409 @@
     <xf numFmtId="4" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6BEE8DE5-B011-483C-A016-2E8CB2FBD503}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1480,6 +1993,39 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF979991"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1528,39 +2074,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color rgb="FF979991"/>
-        </right>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1575,42 +2088,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{295CE76A-F655-4F78-BE71-4FFC8CEAE821}" name="Tabla1" displayName="Tabla1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{295CE76A-F655-4F78-BE71-4FFC8CEAE821}" name="Tabla1" displayName="Tabla1" ref="A1:L25" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A1:L25" xr:uid="{295CE76A-F655-4F78-BE71-4FFC8CEAE821}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E1F8257E-2A8A-46C1-8CA6-0C58ECE221E0}" name="Año" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{8EBAAE07-A336-457F-B3D0-A25F034BD93D}" name="Mes" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{612ECC94-183C-42FE-B6C4-62775A91D9B9}" name="TOTAL" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{5BFE7C1F-C786-4DAA-95C6-FC7A7A70BF0B}" name="Alimentos" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{EBC05104-C610-4542-A2F7-4208ACCDBECA}" name="Vivienda" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{7D3630C1-603E-4BAC-9987-A0EFAD3FDCFA}" name="Vestuario" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{F013340A-099D-4AE2-9118-DA1D9C8FE69F}" name="Salud" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{44B37B04-BD48-4AE3-874C-467973910E86}" name="Educación" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{33633FAD-87B7-482D-9B47-94880FA5CB29}" name="Diversión" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{48CE25CD-F106-4FBE-AF56-3208A54D1105}" name="Transporte" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{D84CF04F-CF57-483E-A7E1-DC42192A2C6E}" name="Comunicaciones" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{8C20683F-00C6-4D11-9E58-43EDD901033E}" name="Otros Gastos" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{E1F8257E-2A8A-46C1-8CA6-0C58ECE221E0}" name="Año" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{8EBAAE07-A336-457F-B3D0-A25F034BD93D}" name="Mes" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{612ECC94-183C-42FE-B6C4-62775A91D9B9}" name="TOTAL" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{5BFE7C1F-C786-4DAA-95C6-FC7A7A70BF0B}" name="Alimentos" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{EBC05104-C610-4542-A2F7-4208ACCDBECA}" name="Vivienda" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{7D3630C1-603E-4BAC-9987-A0EFAD3FDCFA}" name="Vestuario" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{F013340A-099D-4AE2-9118-DA1D9C8FE69F}" name="Salud" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{44B37B04-BD48-4AE3-874C-467973910E86}" name="Educación" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{33633FAD-87B7-482D-9B47-94880FA5CB29}" name="Diversión" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{48CE25CD-F106-4FBE-AF56-3208A54D1105}" name="Transporte" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{D84CF04F-CF57-483E-A7E1-DC42192A2C6E}" name="Comunicaciones" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{8C20683F-00C6-4D11-9E58-43EDD901033E}" name="Otros Gastos" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65CCA381-9A5E-44DC-AFB6-F767AB761E41}" name="Tabla13" displayName="Tabla13" ref="A1:L25" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{65CCA381-9A5E-44DC-AFB6-F767AB761E41}" name="Tabla13" displayName="Tabla13" ref="A1:L25" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="A1:L25" xr:uid="{65CCA381-9A5E-44DC-AFB6-F767AB761E41}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B6CE91CC-9362-406F-9123-80C8435D5012}" name="Año" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{BAD815CB-95A7-4986-9D7D-31E74DAEDAEA}" name="Mes" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6A5C44D4-EC7D-4529-8399-3B373249A52D}" name="TOTAL" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E4AD39FB-8AC6-4E46-BC5B-F85BE3D5B785}" name="Alimentos" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B052F616-906B-4D58-B62E-0E56D1D48154}" name="Vivienda" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{7654277F-4280-4588-B7B8-8F67913C5A2B}" name="Vestuario" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{3A734EE1-6183-4121-AE23-2DB3B78BC509}" name="Salud" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{5359DF73-1819-4A73-B381-707ECEB44BE8}" name="Educación" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{1C583536-1E57-4059-84A8-2C317164AF22}" name="Diversión" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{E8214F64-6598-48B3-BEA3-1437FCB456FC}" name="Transporte" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{EBA19A90-1FC5-47C2-8C39-FD2F123D5F2F}" name="Comunicaciones" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{D0F92926-89D5-428D-958D-E63D7A3744AA}" name="Otros Gastos" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B6CE91CC-9362-406F-9123-80C8435D5012}" name="Año" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{BAD815CB-95A7-4986-9D7D-31E74DAEDAEA}" name="Mes" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{6A5C44D4-EC7D-4529-8399-3B373249A52D}" name="TOTAL" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{E4AD39FB-8AC6-4E46-BC5B-F85BE3D5B785}" name="Alimentos" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{B052F616-906B-4D58-B62E-0E56D1D48154}" name="Vivienda" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{7654277F-4280-4588-B7B8-8F67913C5A2B}" name="Vestuario" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{3A734EE1-6183-4121-AE23-2DB3B78BC509}" name="Salud" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{5359DF73-1819-4A73-B381-707ECEB44BE8}" name="Educación" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{1C583536-1E57-4059-84A8-2C317164AF22}" name="Diversión" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{E8214F64-6598-48B3-BEA3-1437FCB456FC}" name="Transporte" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{EBA19A90-1FC5-47C2-8C39-FD2F123D5F2F}" name="Comunicaciones" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{D0F92926-89D5-428D-958D-E63D7A3744AA}" name="Otros Gastos" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{54A3D90F-E1FA-4983-8495-0272B534D67C}" name="Tabla3" displayName="Tabla3" ref="A1:N38" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+  <autoFilter ref="A1:N38" xr:uid="{54A3D90F-E1FA-4983-8495-0272B534D67C}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{A8758A23-0EB6-450B-BF2B-DC206641E374}" name="Año" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{54DD5E65-948A-4FFA-8102-2E2D565DBA3C}" name="Mes" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{5C063156-FF3E-4C0A-A2F8-F8AC006088BF}" name="Alimentos y bebidas no alcohólicas" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{825F20B1-4CB4-43B1-B073-555D10CAFDDF}" name="Bebidas alcohólicas y tabaco" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{CA27E7A2-AC87-4ABA-81B2-B0179E458F46}" name="Prendas de vestir y calzado" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{44EEB6A6-D607-41D6-BEE6-592F1D397363}" name="Alojamiento, agua, electricidad, gas y otros combustibles" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{2C3B0756-2F53-4150-9062-B9A3EE9E41B2}" name="Muebles, artículos para el hogar y para la conservación ordinaria del hogar" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{4BEFE6C3-5BCA-4EE2-8058-9A8EC73AB08D}" name="Salud" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{89A240A2-3440-44CF-BBDF-D6BABD4617E2}" name="Transporte" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{1C5C4E14-6759-4816-91AA-0F82428ACA59}" name="Información y comunicación" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{4BB19D7C-1328-412D-80C4-1F6ED5D8D94F}" name="Recreación y cultura" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{06A2A216-C84A-4131-910F-8F289E33A8BF}" name="Educación" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{9B966037-5B76-4990-BC7A-9E63A8CE69AA}" name="Restaurantes y hoteles" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{7CCA16B2-7074-4032-A5F8-BF4CD431A62A}" name="Bienes y servicios diversos" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1951,18 +2487,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1981,18 +2517,18 @@
     </row>
     <row r="7" spans="1:11" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" ht="93.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -2875,136 +3411,136 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
@@ -3013,6 +3549,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="A41:H41"/>
     <mergeCell ref="A42:H42"/>
     <mergeCell ref="A43:H43"/>
@@ -3022,11 +3563,6 @@
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A41" r:id="rId1" location="base-2008" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3041,7 +3577,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3056,956 +3592,957 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
+      <c r="A2" s="16">
         <v>2017</v>
       </c>
-      <c r="B2" s="23">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="B2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="18">
         <v>1.024114</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="18">
         <v>1.6220829999999999</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="18">
         <v>0.70928000000000002</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="18">
         <v>0.16564599999999999</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="18">
         <v>1.2952349999999999</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="18">
         <v>3.3001000000000003E-2</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="18">
         <v>1.0808139999999999</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="18">
         <v>0.94003400000000004</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="18">
         <v>1.5795049999999999</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="18">
         <v>1.057048</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
+      <c r="A3" s="16">
         <v>2017</v>
       </c>
-      <c r="B3" s="23">
-        <v>2</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="B3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="19">
         <v>1.0057389999999999</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="19">
         <v>0.70907500000000001</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="19">
         <v>0.42727599999999999</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="19">
         <v>0.51868999999999998</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="19">
         <v>1.0949469999999999</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="19">
         <v>6.7776500000000004</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="19">
         <v>-0.97492100000000004</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="19">
         <v>0.40567399999999998</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="19">
         <v>1.6489959999999999</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="19">
         <v>1.620817</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>2017</v>
       </c>
-      <c r="B4" s="23">
-        <v>3</v>
-      </c>
-      <c r="C4" s="25">
+      <c r="B4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="18">
         <v>0.46583000000000002</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="18">
         <v>0.11365699999999999</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="18">
         <v>0.52996200000000004</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="18">
         <v>0.38567600000000002</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="18">
         <v>1.28237</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="18">
         <v>4.0779000000000003E-2</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="18">
         <v>0.51871299999999998</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="18">
         <v>0.57562100000000005</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="18">
         <v>1.534859</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="18">
         <v>1.1293899999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="16">
         <v>2017</v>
       </c>
-      <c r="B5" s="23">
-        <v>4</v>
-      </c>
-      <c r="C5" s="26">
+      <c r="B5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="19">
         <v>0.47372300000000001</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="19">
         <v>0.130721</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="19">
         <v>0.67307600000000001</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="19">
         <v>0.38123400000000002</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="19">
         <v>0.72238800000000003</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="19">
         <v>1.278E-2</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="19">
         <v>0.267737</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="19">
         <v>1.00156</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="19">
         <v>0.27424500000000002</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="19">
         <v>0.58650100000000005</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
+      <c r="A6" s="16">
         <v>2017</v>
       </c>
-      <c r="B6" s="23">
-        <v>5</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="18">
         <v>0.22531799999999999</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="18">
         <v>7.2900999999999994E-2</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="18">
         <v>0.48933199999999999</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="18">
         <v>0.15657099999999999</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="18">
         <v>0.42503000000000002</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="18">
         <v>6.6870000000000002E-3</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="18">
         <v>-9.8488000000000006E-2</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="18">
         <v>0.19170200000000001</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="18">
         <v>-4.3493999999999998E-2</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="18">
         <v>0.208625</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
+      <c r="A7" s="16">
         <v>2017</v>
       </c>
-      <c r="B7" s="23">
-        <v>6</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="B7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19">
         <v>0.11464100000000001</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="19">
         <v>-0.20787800000000001</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="19">
         <v>0.24127899999999999</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="19">
         <v>0.18607199999999999</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="19">
         <v>0.35524</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="19">
         <v>1.5615E-2</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="19">
         <v>2.8538950000000001</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="19">
         <v>2.4576000000000001E-2</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="19">
         <v>-4.6720999999999999E-2</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="19">
         <v>0.117592</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
+      <c r="A8" s="16">
         <v>2017</v>
       </c>
-      <c r="B8" s="23">
-        <v>7</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="18">
         <v>-5.1151000000000002E-2</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="18">
         <v>-5.7221000000000001E-2</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="18">
         <v>-0.108047</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="18">
         <v>5.9107E-2</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="18">
         <v>0.217027</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="18">
         <v>2.844E-2</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="18">
         <v>-0.88668999999999998</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="18">
         <v>-1.158E-3</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="18">
         <v>3.5230000000000001E-3</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="18">
         <v>0.197021</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
+      <c r="A9" s="16">
         <v>2017</v>
       </c>
-      <c r="B9" s="23">
-        <v>8</v>
-      </c>
-      <c r="C9" s="26">
+      <c r="B9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="19">
         <v>0.14005699999999999</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="19">
         <v>-7.8578999999999996E-2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="19">
         <v>0.44341799999999998</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="19">
         <v>-4.9496999999999999E-2</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="19">
         <v>0.14723900000000001</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="19">
         <v>0.13700000000000001</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="19">
         <v>6.2776999999999999E-2</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="19">
         <v>2.1163999999999999E-2</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="19">
         <v>-1.6267E-2</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="19">
         <v>0.197771</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>2017</v>
       </c>
-      <c r="B10" s="23">
-        <v>9</v>
-      </c>
-      <c r="C10" s="25">
+      <c r="B10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="18">
         <v>4.0274999999999998E-2</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="18">
         <v>-0.40244400000000002</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="18">
         <v>0.34407700000000002</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="18">
         <v>9.6251000000000003E-2</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="18">
         <v>0.107143</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="18">
         <v>0.298514</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="18">
         <v>-0.31702000000000002</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="18">
         <v>0.15356800000000001</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="18">
         <v>4.3088000000000001E-2</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="18">
         <v>0.18784799999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
+      <c r="A11" s="16">
         <v>2017</v>
       </c>
-      <c r="B11" s="23">
-        <v>10</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="B11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="19">
         <v>1.6719999999999999E-2</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="19">
         <v>-0.238762</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="19">
         <v>0.21526600000000001</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="19">
         <v>-8.0530000000000004E-2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="19">
         <v>0.18784799999999999</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="19">
         <v>7.4549999999999998E-3</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="19">
         <v>0.31088399999999999</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="19">
         <v>2.6773999999999999E-2</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="19">
         <v>-3.3960000000000001E-3</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="19">
         <v>9.7259999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
+      <c r="A12" s="16">
         <v>2017</v>
       </c>
-      <c r="B12" s="23">
-        <v>11</v>
-      </c>
-      <c r="C12" s="25">
+      <c r="B12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="18">
         <v>0.180838</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="18">
         <v>6.0909999999999999E-2</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="18">
         <v>0.30105999999999999</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="18">
         <v>0.13264999999999999</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="18">
         <v>0.15292800000000001</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="18">
         <v>5.3119999999999999E-3</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="18">
         <v>0.68116600000000005</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="18">
         <v>0.19999500000000001</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="18">
         <v>9.9530999999999994E-2</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="18">
         <v>0.16470899999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
+      <c r="A13" s="16">
         <v>2017</v>
       </c>
-      <c r="B13" s="23">
-        <v>12</v>
-      </c>
-      <c r="C13" s="26">
+      <c r="B13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="19">
         <v>0.38491999999999998</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="19">
         <v>0.191246</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="19">
         <v>0.13731299999999999</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="19">
         <v>1.2656000000000001E-2</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="19">
         <v>0.18559899999999999</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="19">
         <v>1.9780000000000002E-3</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="19">
         <v>4.0531420000000002</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="19">
         <v>0.89452600000000004</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="19">
         <v>1.201678</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="19">
         <v>8.5290000000000005E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="23">
+      <c r="A14" s="16">
         <v>2018</v>
       </c>
-      <c r="B14" s="23">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25">
+      <c r="B14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="18">
         <v>0.62706399999999995</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="18">
         <v>1.2001900000000001</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="18">
         <v>0.32680399999999998</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="18">
         <v>6.9966E-2</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="18">
         <v>1.1614089999999999</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="18">
         <v>5.8279999999999998E-3</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="18">
         <v>0.40434199999999998</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="18">
         <v>0.70084400000000002</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="18">
         <v>3.7295000000000002E-2</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="18">
         <v>0.48491600000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
+      <c r="A15" s="16">
         <v>2018</v>
       </c>
-      <c r="B15" s="23">
-        <v>2</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="B15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="19">
         <v>0.70625800000000005</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="19">
         <v>0.163934</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="19">
         <v>0.37859599999999999</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="19">
         <v>3.1084000000000001E-2</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="19">
         <v>0.844418</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="19">
         <v>5.8520469999999998</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="19">
         <v>-1.8969819999999999</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="19">
         <v>1.034905</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="19">
         <v>0.23200299999999999</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="19">
         <v>0.580349</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="16">
         <v>2018</v>
       </c>
-      <c r="B16" s="23">
-        <v>3</v>
-      </c>
-      <c r="C16" s="25">
+      <c r="B16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="18">
         <v>0.24010100000000001</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="18">
         <v>0.152088</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="18">
         <v>0.39993000000000001</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="18">
         <v>-2.6144000000000001E-2</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="18">
         <v>0.899918</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="18">
         <v>2.5174999999999999E-2</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="18">
         <v>-0.38657399999999997</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="18">
         <v>0.33807199999999998</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="18">
         <v>1.2440000000000001E-3</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="18">
         <v>0.16670699999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
+      <c r="A17" s="16">
         <v>2018</v>
       </c>
-      <c r="B17" s="23">
-        <v>4</v>
-      </c>
-      <c r="C17" s="26">
+      <c r="B17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="19">
         <v>0.46179300000000001</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="19">
         <v>0.66029000000000004</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="19">
         <v>0.78546000000000005</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="19">
         <v>-2.8159999999999999E-3</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="19">
         <v>0.43429699999999999</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="19">
         <v>3.8509999999999998E-3</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="19">
         <v>-0.31544899999999998</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="19">
         <v>8.7359000000000006E-2</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="19">
         <v>-4.3709999999999999E-3</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="19">
         <v>0.20605200000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="23">
+      <c r="A18" s="16">
         <v>2018</v>
       </c>
-      <c r="B18" s="23">
-        <v>5</v>
-      </c>
-      <c r="C18" s="25">
+      <c r="B18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="18">
         <v>0.253668</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="18">
         <v>5.5502999999999997E-2</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="18">
         <v>0.45445099999999999</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="18">
         <v>-3.1163E-2</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="18">
         <v>7.0328000000000002E-2</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="18">
         <v>3.6059999999999998E-3</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="18">
         <v>0.65295300000000001</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="18">
         <v>0.38477499999999998</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="18">
         <v>-1.1821E-2</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="18">
         <v>0.40212700000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="23">
+      <c r="A19" s="16">
         <v>2018</v>
       </c>
-      <c r="B19" s="23">
-        <v>6</v>
-      </c>
-      <c r="C19" s="26">
+      <c r="B19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="19">
         <v>0.15466199999999999</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="19">
         <v>2.5128000000000001E-2</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="19">
         <v>7.5134000000000006E-2</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="19">
         <v>6.6239999999999993E-2</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="19">
         <v>0.24270600000000001</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="19">
         <v>8.8059999999999996E-3</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="19">
         <v>3.4223000000000003E-2</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="19">
         <v>0.33638000000000001</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="19">
         <v>1.689562</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="19">
         <v>0.13015199999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
+      <c r="A20" s="16">
         <v>2018</v>
       </c>
-      <c r="B20" s="23">
-        <v>7</v>
-      </c>
-      <c r="C20" s="25">
+      <c r="B20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="18">
         <v>-0.12753500000000001</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="18">
         <v>-0.55945199999999995</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="18">
         <v>0.254465</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="18">
         <v>-5.2547000000000003E-2</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="18">
         <v>0.17208399999999999</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="18">
         <v>6.0850000000000001E-3</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="18">
         <v>-0.41620400000000002</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="18">
         <v>8.1240000000000007E-2</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="18">
         <v>-1.4008320000000001</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="18">
         <v>2.3144999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="23">
+      <c r="A21" s="16">
         <v>2018</v>
       </c>
-      <c r="B21" s="23">
-        <v>8</v>
-      </c>
-      <c r="C21" s="26">
+      <c r="B21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="19">
         <v>0.11974700000000001</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="19">
         <v>3.4883999999999998E-2</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="19">
         <v>0.35279300000000002</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="19">
         <v>5.9766E-2</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="19">
         <v>0.130385</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="19">
         <v>0.12772800000000001</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="19">
         <v>-0.68749700000000002</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="19">
         <v>5.4780000000000002E-2</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="19">
         <v>-0.17890700000000001</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="19">
         <v>3.9983999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="23">
+      <c r="A22" s="16">
         <v>2018</v>
       </c>
-      <c r="B22" s="23">
-        <v>9</v>
-      </c>
-      <c r="C22" s="25">
+      <c r="B22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="18">
         <v>0.16499800000000001</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="18">
         <v>0.29372599999999999</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="18">
         <v>0.180036</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="18">
         <v>-5.2211E-2</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="18">
         <v>0.189668</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="18">
         <v>0.29902600000000001</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="18">
         <v>-0.12975900000000001</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="18">
         <v>7.8299999999999995E-4</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="18">
         <v>2.8330000000000001E-2</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="18">
         <v>5.3990999999999997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
+      <c r="A23" s="16">
         <v>2018</v>
       </c>
-      <c r="B23" s="23">
-        <v>10</v>
-      </c>
-      <c r="C23" s="26">
+      <c r="B23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="19">
         <v>0.120367</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="19">
         <v>-4.4824000000000003E-2</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="19">
         <v>0.35772100000000001</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="19">
         <v>5.5295999999999998E-2</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="19">
         <v>7.1911000000000003E-2</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="19">
         <v>-1.472E-3</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="19">
         <v>-7.9283999999999993E-2</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="19">
         <v>0.19631100000000001</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="19">
         <v>-5.0953999999999999E-2</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="19">
         <v>-9.0608999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="23">
+      <c r="A24" s="16">
         <v>2018</v>
       </c>
-      <c r="B24" s="23">
-        <v>11</v>
-      </c>
-      <c r="C24" s="25">
+      <c r="B24" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="18">
         <v>0.117189</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="18">
         <v>3.2072999999999997E-2</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="18">
         <v>0.18481800000000001</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="18">
         <v>0.13266900000000001</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="18">
         <v>-4.9589000000000001E-2</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="18">
         <v>6.7920000000000003E-3</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="18">
         <v>1.005212</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="18">
         <v>8.3263000000000004E-2</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="18">
         <v>-1.0699E-2</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="18">
         <v>0.13068399999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="23">
+      <c r="A25" s="16">
         <v>2018</v>
       </c>
-      <c r="B25" s="23">
-        <v>12</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="B25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="19">
         <v>0.29733900000000002</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="19">
         <v>0.404136</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="19">
         <v>0.30341800000000002</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="19">
         <v>7.6336000000000001E-2</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="19">
         <v>9.1665999999999997E-2</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="19">
         <v>1.5004999999999999E-2</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="19">
         <v>0.68520700000000001</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="19">
         <v>0.37573499999999999</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="19">
         <v>-2.5377E-2</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="19">
         <v>0.14493700000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4018,966 +4555,4137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50C35D1-DE9B-4BC7-96DB-8636C8E514ED}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" ht="28" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
+      <c r="A2" s="16">
         <v>2017</v>
       </c>
-      <c r="B2" s="23">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27">
+      <c r="B2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="20">
         <v>5.4691890000000001</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="20">
         <v>5.9716880000000003</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="20">
         <v>4.9142010000000003</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="20">
         <v>3.6121370000000002</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="20">
         <v>7.9304560000000004</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="20">
         <v>6.2983599999999997</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="20">
         <v>4.0147320000000004</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="20">
         <v>4.7013410000000002</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="20">
         <v>6.0484450000000001</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="21">
         <v>7.3212549999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
+      <c r="A3" s="16">
         <v>2017</v>
       </c>
-      <c r="B3" s="23">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="B3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="22">
         <v>5.18398</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="22">
         <v>5.2120749999999996</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="22">
         <v>4.5481689999999997</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="22">
         <v>3.6581640000000002</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="22">
         <v>7.8300890000000001</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="22">
         <v>7.5173860000000001</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="22">
         <v>1.98187</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="22">
         <v>4.2631110000000003</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="22">
         <v>7.7950590000000002</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="23">
         <v>7.8006989999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>2017</v>
       </c>
-      <c r="B4" s="23">
-        <v>3</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="20">
         <v>4.6860569999999999</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="20">
         <v>3.6521539999999999</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="20">
         <v>4.2282419999999998</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="20">
         <v>3.5779700000000001</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="20">
         <v>7.9262600000000001</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="20">
         <v>7.5338940000000001</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="20">
         <v>3.5075059999999998</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="20">
         <v>4.5868760000000002</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="20">
         <v>7.0136329999999996</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="21">
         <v>7.8818700000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="16">
         <v>2017</v>
       </c>
-      <c r="B5" s="23">
-        <v>4</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="B5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="22">
         <v>4.6627489999999998</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="22">
         <v>2.4942880000000001</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="22">
         <v>5.0754060000000001</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="22">
         <v>3.5238109999999998</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="22">
         <v>7.8074079999999997</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="22">
         <v>7.5159840000000004</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="22">
         <v>3.6258910000000002</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="22">
         <v>5.1529109999999996</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="22">
         <v>7.2895669999999999</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="23">
         <v>7.6504830000000004</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
+      <c r="A6" s="16">
         <v>2017</v>
       </c>
-      <c r="B6" s="23">
-        <v>5</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="20">
         <v>4.3665219999999998</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="20">
         <v>2.0947300000000002</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="20">
         <v>4.7932829999999997</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="20">
         <v>3.3018770000000002</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="20">
         <v>7.7104509999999999</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="20">
         <v>7.5057679999999998</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="20">
         <v>3.3199839999999998</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="20">
         <v>4.8379009999999996</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="20">
         <v>7.2692360000000003</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="21">
         <v>7.2659419999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
+      <c r="A7" s="16">
         <v>2017</v>
       </c>
-      <c r="B7" s="23">
-        <v>6</v>
-      </c>
-      <c r="C7" s="29">
+      <c r="B7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="22">
         <v>3.9873729999999998</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="22">
         <v>1.371218</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="22">
         <v>4.6324630000000004</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="22">
         <v>3.0977290000000002</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="22">
         <v>7.3802680000000001</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="22">
         <v>7.483625</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="22">
         <v>3.007736</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="22">
         <v>4.4354769999999997</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="22">
         <v>7.1776460000000002</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="23">
         <v>6.8942589999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
+      <c r="A8" s="16">
         <v>2017</v>
       </c>
-      <c r="B8" s="23">
-        <v>7</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="20">
         <v>3.3965420000000002</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="20">
         <v>0.19913600000000001</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="20">
         <v>4.0545239999999998</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="20">
         <v>2.9164180000000002</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="20">
         <v>7.164866</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="20">
         <v>7.4742829999999998</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="20">
         <v>3.8782749999999999</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="20">
         <v>4.2443439999999999</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="20">
         <v>6.484502</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="21">
         <v>6.6883619999999997</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
+      <c r="A9" s="16">
         <v>2017</v>
       </c>
-      <c r="B9" s="23">
-        <v>8</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="22">
         <v>3.8736630000000001</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="22">
         <v>1.6905209999999999</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="22">
         <v>4.3584120000000004</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="22">
         <v>2.6375069999999998</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="22">
         <v>6.7987270000000004</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="22">
         <v>7.3981079999999997</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="22">
         <v>4.0383240000000002</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="22">
         <v>3.9071980000000002</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="22">
         <v>6.5295009999999998</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="23">
         <v>6.4757879999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>2017</v>
       </c>
-      <c r="B10" s="23">
-        <v>9</v>
-      </c>
-      <c r="C10" s="27">
+      <c r="B10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="20">
         <v>3.9704259999999998</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="20">
         <v>2.2151019999999999</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="20">
         <v>4.3730399999999996</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="20">
         <v>2.5218050000000001</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="20">
         <v>6.368538</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="20">
         <v>7.4092650000000004</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="20">
         <v>4.5382119999999997</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="20">
         <v>3.861707</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="20">
         <v>5.0360060000000004</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="21">
         <v>6.2593639999999997</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
+      <c r="A11" s="16">
         <v>2017</v>
       </c>
-      <c r="B11" s="23">
-        <v>10</v>
-      </c>
-      <c r="C11" s="29">
+      <c r="B11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="22">
         <v>4.0501360000000002</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="22">
         <v>2.509363</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="22">
         <v>4.4906379999999997</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="22">
         <v>2.1116450000000002</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="22">
         <v>6.3413199999999996</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="22">
         <v>7.4095740000000001</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="22">
         <v>4.748138</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="22">
         <v>3.6339929999999998</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="22">
         <v>5.2287049999999997</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="23">
         <v>6.1227989999999997</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
+      <c r="A12" s="16">
         <v>2017</v>
       </c>
-      <c r="B12" s="23">
-        <v>11</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="20">
         <v>4.1217490000000003</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="20">
         <v>2.51586</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="20">
         <v>4.6159480000000004</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="20">
         <v>2.0770499999999998</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="20">
         <v>6.3608469999999997</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="20">
         <v>7.4054270000000004</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="20">
         <v>4.7082090000000001</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="20">
         <v>3.8807740000000002</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="20">
         <v>5.343547</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="21">
         <v>6.0315469999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
+      <c r="A13" s="16">
         <v>2017</v>
       </c>
-      <c r="B13" s="23">
-        <v>12</v>
-      </c>
-      <c r="C13" s="29">
+      <c r="B13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="22">
         <v>4.088622</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="22">
         <v>1.916588</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="22">
         <v>4.4902240000000004</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="22">
         <v>1.9804459999999999</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="22">
         <v>6.3383510000000003</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="22">
         <v>7.4062830000000002</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="22">
         <v>7.6940999999999997</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="22">
         <v>4.5167359999999999</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="22">
         <v>6.4286640000000004</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="23">
         <v>5.7832650000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="23">
+      <c r="A14" s="16">
         <v>2018</v>
       </c>
-      <c r="B14" s="23">
-        <v>1</v>
-      </c>
-      <c r="C14" s="27">
+      <c r="B14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="20">
         <v>3.6795279999999999</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="20">
         <v>1.4934719999999999</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="20">
         <v>4.093388</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="20">
         <v>1.883032</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="20">
         <v>6.1978629999999999</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="20">
         <v>7.3771069999999996</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="20">
         <v>6.9733689999999999</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="20">
         <v>4.2690710000000003</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="20">
         <v>4.8128330000000004</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="21">
         <v>5.1843760000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
+      <c r="A15" s="16">
         <v>2018</v>
       </c>
-      <c r="B15" s="23">
-        <v>2</v>
-      </c>
-      <c r="C15" s="29">
+      <c r="B15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="22">
         <v>3.3721190000000001</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="22">
         <v>0.94408499999999995</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="22">
         <v>4.0429310000000003</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="22">
         <v>1.388808</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="22">
         <v>5.9346870000000003</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="22">
         <v>6.446307</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="22">
         <v>5.9772980000000002</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="22">
         <v>4.9225139999999996</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="22">
         <v>3.3517359999999998</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="23">
         <v>4.1074219999999997</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="16">
         <v>2018</v>
       </c>
-      <c r="B16" s="23">
-        <v>3</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="B16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="20">
         <v>3.139859</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="20">
         <v>0.98283399999999999</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="20">
         <v>3.9083540000000001</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="20">
         <v>0.97287199999999996</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="20">
         <v>5.5346669999999998</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="20">
         <v>6.4297029999999999</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="20">
         <v>5.02285</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="20">
         <v>4.6746980000000002</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="20">
         <v>1.790678</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="21">
         <v>3.11639</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
+      <c r="A17" s="16">
         <v>2018</v>
       </c>
-      <c r="B17" s="23">
-        <v>4</v>
-      </c>
-      <c r="C17" s="29">
+      <c r="B17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="22">
         <v>3.1276130000000002</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="22">
         <v>1.51691</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="22">
         <v>4.0243500000000001</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="22">
         <v>0.58655900000000005</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="22">
         <v>5.232812</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="22">
         <v>6.4202009999999996</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="22">
         <v>4.412007</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="22">
         <v>3.7272500000000002</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="22">
         <v>1.5078480000000001</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="23">
         <v>2.726372</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="23">
+      <c r="A18" s="16">
         <v>2018</v>
       </c>
-      <c r="B18" s="23">
-        <v>5</v>
-      </c>
-      <c r="C18" s="27">
+      <c r="B18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="20">
         <v>3.1567850000000002</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="20">
         <v>1.499261</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="20">
         <v>3.9882430000000002</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="20">
         <v>0.39801900000000001</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="20">
         <v>4.861129</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="20">
         <v>6.4169219999999996</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="20">
         <v>5.1973750000000001</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="20">
         <v>3.927136</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="20">
         <v>1.5400130000000001</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="21">
         <v>2.9247359999999998</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="23">
+      <c r="A19" s="16">
         <v>2018</v>
       </c>
-      <c r="B19" s="23">
-        <v>6</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="B19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="22">
         <v>3.1980219999999999</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="22">
         <v>1.736253</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="22">
         <v>3.815887</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="22">
         <v>0.27793299999999999</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="22">
         <v>4.7435419999999997</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="22">
         <v>6.4096770000000003</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="22">
         <v>2.3134589999999999</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="22">
         <v>4.2511060000000001</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="22">
         <v>3.3038590000000001</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="23">
         <v>2.9376479999999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
+      <c r="A20" s="16">
         <v>2018</v>
       </c>
-      <c r="B20" s="23">
-        <v>7</v>
-      </c>
-      <c r="C20" s="27">
+      <c r="B20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="20">
         <v>3.1191550000000001</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="20">
         <v>1.2250110000000001</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="20">
         <v>4.1926389999999998</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="20">
         <v>0.16603399999999999</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="20">
         <v>4.6965690000000002</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="20">
         <v>6.3858959999999998</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="20">
         <v>2.7991359999999998</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="20">
         <v>4.3370069999999998</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="20">
         <v>1.8531569999999999</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="21">
         <v>2.7590159999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="23">
+      <c r="A21" s="16">
         <v>2018</v>
       </c>
-      <c r="B21" s="23">
-        <v>8</v>
-      </c>
-      <c r="C21" s="29">
+      <c r="B21" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="22">
         <v>3.0982409999999998</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="22">
         <v>1.3399540000000001</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="22">
         <v>4.0986320000000003</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="22">
         <v>0.27553299999999997</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="22">
         <v>4.6789490000000002</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="22">
         <v>6.3760459999999997</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="22">
         <v>2.028343</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="22">
         <v>4.3720749999999997</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="22">
         <v>1.687476</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="23">
         <v>2.5971959999999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="23">
+      <c r="A22" s="16">
         <v>2018</v>
       </c>
-      <c r="B22" s="23">
-        <v>9</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="B22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="20">
         <v>3.2267760000000001</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="20">
         <v>2.0483030000000002</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="20">
         <v>3.9284530000000002</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="20">
         <v>0.126805</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="20">
         <v>4.7652419999999998</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="20">
         <v>6.3765890000000001</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="20">
         <v>2.2200099999999998</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="20">
         <v>4.2128540000000001</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="20">
         <v>1.6724760000000001</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="21">
         <v>2.4601199999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
+      <c r="A23" s="16">
         <v>2018</v>
       </c>
-      <c r="B23" s="23">
-        <v>10</v>
-      </c>
-      <c r="C23" s="29">
+      <c r="B23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="22">
         <v>3.3337500000000002</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="22">
         <v>2.2466870000000001</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="22">
         <v>4.0761859999999999</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="22">
         <v>0.26291300000000001</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="22">
         <v>4.6440089999999996</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="22">
         <v>6.3670929999999997</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="22">
         <v>1.822417</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="22">
         <v>4.3894859999999998</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="22">
         <v>1.6241209999999999</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="23">
         <v>2.267817</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="23">
+      <c r="A24" s="16">
         <v>2018</v>
       </c>
-      <c r="B24" s="23">
-        <v>11</v>
-      </c>
-      <c r="C24" s="27">
+      <c r="B24" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="20">
         <v>3.268097</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="20">
         <v>2.2172209999999999</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="20">
         <v>3.9555690000000001</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="20">
         <v>0.26293299999999997</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="20">
         <v>4.43241</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="20">
         <v>6.3686670000000003</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="20">
         <v>2.1501359999999998</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="20">
         <v>4.2678729999999998</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="20">
         <v>1.5122119999999999</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="21">
         <v>2.2330770000000002</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="23">
+      <c r="A25" s="16">
         <v>2018</v>
       </c>
-      <c r="B25" s="23">
-        <v>12</v>
-      </c>
-      <c r="C25" s="29">
+      <c r="B25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="22">
         <v>3.1780010000000001</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="22">
         <v>2.434415</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="22">
         <v>4.1280070000000002</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="22">
         <v>0.32677200000000001</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="22">
         <v>4.3344950000000004</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="22">
         <v>6.3825240000000001</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="22">
         <v>-1.156204</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="22">
         <v>3.7317369999999999</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="22">
         <v>0.281393</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="23">
         <v>2.2940049999999998</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1626FCBF-7B54-4452-A098-374E5FB1BD00}">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="126" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="37">
+        <v>1.4</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0.49</v>
+      </c>
+      <c r="E2" s="37">
+        <v>-0.16</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="H2" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="I2" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="J2" s="37">
+        <v>1.44</v>
+      </c>
+      <c r="K2" s="37">
+        <v>0.47</v>
+      </c>
+      <c r="L2" s="37">
+        <v>0</v>
+      </c>
+      <c r="M2" s="37">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N2" s="43">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="D3" s="37">
+        <v>1.05</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.39</v>
+      </c>
+      <c r="H3" s="37">
+        <v>-0.02</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0.78</v>
+      </c>
+      <c r="J3" s="37">
+        <v>-0.12</v>
+      </c>
+      <c r="K3" s="37">
+        <v>0.53</v>
+      </c>
+      <c r="L3" s="37">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="M3" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="N3" s="43">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0.94</v>
+      </c>
+      <c r="E4" s="37">
+        <v>-0.02</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.67</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="J4" s="37">
+        <v>-0.13</v>
+      </c>
+      <c r="K4" s="37">
+        <v>-0.5</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="M4" s="37">
+        <v>-0.03</v>
+      </c>
+      <c r="N4" s="43">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1.07</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.81</v>
+      </c>
+      <c r="E5" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.47</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0.31</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="J5" s="37">
+        <v>0.72</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0.09</v>
+      </c>
+      <c r="M5" s="37">
+        <v>0.47</v>
+      </c>
+      <c r="N5" s="43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.65</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0.79</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="37">
+        <v>-0.06</v>
+      </c>
+      <c r="K6" s="37">
+        <v>0.19</v>
+      </c>
+      <c r="L6" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="M6" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="N6" s="43">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0.09</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="H7" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I7" s="37">
+        <v>0.45</v>
+      </c>
+      <c r="J7" s="37">
+        <v>-0.12</v>
+      </c>
+      <c r="K7" s="37">
+        <v>0.53</v>
+      </c>
+      <c r="L7" s="37">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="43">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0.66</v>
+      </c>
+      <c r="D8" s="37">
+        <v>-0.01</v>
+      </c>
+      <c r="E8" s="37">
+        <v>-0.23</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.17</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J8" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="K8" s="37">
+        <v>0.51</v>
+      </c>
+      <c r="L8" s="37">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
+        <v>-0.05</v>
+      </c>
+      <c r="N8" s="43">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="37">
+        <v>-0.13</v>
+      </c>
+      <c r="D9" s="37">
+        <v>-0.08</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.16</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="37">
+        <v>-0.18</v>
+      </c>
+      <c r="K9" s="37">
+        <v>-0.26</v>
+      </c>
+      <c r="L9" s="37">
+        <v>0.11</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="N9" s="43">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="D10" s="37">
+        <v>-0.17</v>
+      </c>
+      <c r="E10" s="37">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="G10" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I10" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="J10" s="37">
+        <v>-0.02</v>
+      </c>
+      <c r="K10" s="37">
+        <v>-0.43</v>
+      </c>
+      <c r="L10" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="M10" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="N10" s="43">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E11" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.19</v>
+      </c>
+      <c r="G11" s="37">
+        <v>-0.05</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0.34</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J11" s="37">
+        <v>-0.06</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0.47</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="M11" s="37">
+        <v>0.11</v>
+      </c>
+      <c r="N11" s="43">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="37">
+        <v>-0.47</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.44</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.11</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.11</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="37">
+        <v>-0.06</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0.39</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="N12" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="37">
+        <v>-0.25</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.54</v>
+      </c>
+      <c r="E13" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.09</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0.17</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0.48</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0.96</v>
+      </c>
+      <c r="K13" s="37">
+        <v>1.41</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="43">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0.76</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.41</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.51</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0.59</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="37">
+        <v>0.39</v>
+      </c>
+      <c r="K14" s="37">
+        <v>0.49</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37">
+        <v>0.87</v>
+      </c>
+      <c r="N14" s="43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="37">
+        <v>0.93</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0.51</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0.31</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.47</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0.65</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J15" s="37">
+        <v>-0.1</v>
+      </c>
+      <c r="K15" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="L15" s="37">
+        <v>4.78</v>
+      </c>
+      <c r="M15" s="37">
+        <v>0.54</v>
+      </c>
+      <c r="N15" s="43">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="37">
+        <v>2.21</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0.49</v>
+      </c>
+      <c r="I16" s="37">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J16" s="37">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="37">
+        <v>-0.37</v>
+      </c>
+      <c r="L16" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="M16" s="37">
+        <v>0.16</v>
+      </c>
+      <c r="N16" s="43">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="37">
+        <v>2.04</v>
+      </c>
+      <c r="D17" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="E17" s="37">
+        <v>-0.39</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H17" s="37">
+        <v>0.51</v>
+      </c>
+      <c r="I17" s="37">
+        <v>-0.89</v>
+      </c>
+      <c r="J17" s="37">
+        <v>-2.97</v>
+      </c>
+      <c r="K17" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="L17" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="M17" s="37">
+        <v>0.16</v>
+      </c>
+      <c r="N17" s="43">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E18" s="37">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F18" s="37">
+        <v>-0.2</v>
+      </c>
+      <c r="G18" s="37">
+        <v>-1.69</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="I18" s="37">
+        <v>-0.47</v>
+      </c>
+      <c r="J18" s="37">
+        <v>-3.12</v>
+      </c>
+      <c r="K18" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="L18" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="M18" s="37">
+        <v>-0.03</v>
+      </c>
+      <c r="N18" s="43">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="37">
+        <v>-0.11</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0.21</v>
+      </c>
+      <c r="E19" s="37">
+        <v>-2.06</v>
+      </c>
+      <c r="F19" s="37">
+        <v>-0.53</v>
+      </c>
+      <c r="G19" s="37">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="H19" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="I19" s="37">
+        <v>-0.53</v>
+      </c>
+      <c r="J19" s="37">
+        <v>-0.06</v>
+      </c>
+      <c r="K19" s="37">
+        <v>-0.16</v>
+      </c>
+      <c r="L19" s="37">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
+        <v>-0.04</v>
+      </c>
+      <c r="N19" s="43">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="37">
+        <v>-0.8</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E20" s="37">
+        <v>-0.09</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.16</v>
+      </c>
+      <c r="G20" s="37">
+        <v>0</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="37">
+        <v>-0.02</v>
+      </c>
+      <c r="K20" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="L20" s="37">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="N20" s="43">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="37">
+        <v>-0.45</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="E21" s="37">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G21" s="37">
+        <v>-0.05</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="J21" s="37">
+        <v>3.6</v>
+      </c>
+      <c r="K21" s="37">
+        <v>0.17</v>
+      </c>
+      <c r="L21" s="37">
+        <v>-3.48</v>
+      </c>
+      <c r="M21" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="37">
+        <v>-0.04</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.51</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0.11</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0.83</v>
+      </c>
+      <c r="J22" s="37">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K22" s="37">
+        <v>-0.02</v>
+      </c>
+      <c r="L22" s="37">
+        <v>-2.77</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N22" s="43">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="37">
+        <v>-0.32</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="E23" s="37">
+        <v>-0.13</v>
+      </c>
+      <c r="F23" s="37">
+        <v>-0.06</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.04</v>
+      </c>
+      <c r="H23" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0.9</v>
+      </c>
+      <c r="J23" s="37">
+        <v>-0.13</v>
+      </c>
+      <c r="K23" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="L23" s="37">
+        <v>-2.48</v>
+      </c>
+      <c r="M23" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="N23" s="43">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0.16</v>
+      </c>
+      <c r="E24" s="37">
+        <v>-3.71</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0.11</v>
+      </c>
+      <c r="G24" s="37">
+        <v>-0.31</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0.13</v>
+      </c>
+      <c r="I24" s="37">
+        <v>-0.03</v>
+      </c>
+      <c r="J24" s="37">
+        <v>-0.46</v>
+      </c>
+      <c r="K24" s="37">
+        <v>-0.52</v>
+      </c>
+      <c r="L24" s="37">
+        <v>-1.03</v>
+      </c>
+      <c r="M24" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N24" s="43">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="D25" s="37">
+        <v>-0.05</v>
+      </c>
+      <c r="E25" s="37">
+        <v>2.95</v>
+      </c>
+      <c r="F25" s="37">
+        <v>0.52</v>
+      </c>
+      <c r="G25" s="37">
+        <v>0.31</v>
+      </c>
+      <c r="H25" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="J25" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="K25" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="L25" s="37">
+        <v>-2.11</v>
+      </c>
+      <c r="M25" s="37">
+        <v>0.49</v>
+      </c>
+      <c r="N25" s="43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="37">
+        <v>1.44</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="37">
+        <v>-0.41</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0.13</v>
+      </c>
+      <c r="G26" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="J26" s="37">
+        <v>-0.16</v>
+      </c>
+      <c r="K26" s="37">
+        <v>-0.82</v>
+      </c>
+      <c r="L26" s="37">
+        <v>0</v>
+      </c>
+      <c r="M26" s="37">
+        <v>0.65</v>
+      </c>
+      <c r="N26" s="43">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="D27" s="37">
+        <v>0.31</v>
+      </c>
+      <c r="E27" s="37">
+        <v>1.82</v>
+      </c>
+      <c r="F27" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G27" s="37">
+        <v>0.96</v>
+      </c>
+      <c r="H27" s="37">
+        <v>0.59</v>
+      </c>
+      <c r="I27" s="37">
+        <v>0.62</v>
+      </c>
+      <c r="J27" s="37">
+        <v>-0.09</v>
+      </c>
+      <c r="K27" s="37">
+        <v>0.82</v>
+      </c>
+      <c r="L27" s="37">
+        <v>3.56</v>
+      </c>
+      <c r="M27" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="N27" s="43">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="37">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D28" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="E28" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="F28" s="37">
+        <v>0.69</v>
+      </c>
+      <c r="G28" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="H28" s="37">
+        <v>0.31</v>
+      </c>
+      <c r="I28" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="J28" s="37">
+        <v>-0.85</v>
+      </c>
+      <c r="K28" s="37">
+        <v>-0.53</v>
+      </c>
+      <c r="L28" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="M28" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="N28" s="43">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="37">
+        <v>2.09</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0.51</v>
+      </c>
+      <c r="E29" s="37">
+        <v>-0.37</v>
+      </c>
+      <c r="F29" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="G29" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="H29" s="37">
+        <v>0.42</v>
+      </c>
+      <c r="I29" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="J29" s="37">
+        <v>-1.1299999999999999</v>
+      </c>
+      <c r="K29" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L29" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="M29" s="37">
+        <v>0.37</v>
+      </c>
+      <c r="N29" s="43">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="37">
+        <v>5.37</v>
+      </c>
+      <c r="D30" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="E30" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="F30" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="G30" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="H30" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="I30" s="37">
+        <v>0.33</v>
+      </c>
+      <c r="J30" s="37">
+        <v>-3.17</v>
+      </c>
+      <c r="K30" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="L30" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="M30" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="N30" s="43">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="37">
+        <v>-1.02</v>
+      </c>
+      <c r="D31" s="37">
+        <v>0.24</v>
+      </c>
+      <c r="E31" s="37">
+        <v>0.02</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="G31" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="I31" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="37">
+        <v>-0.27</v>
+      </c>
+      <c r="K31" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="37">
+        <v>0</v>
+      </c>
+      <c r="M31" s="37">
+        <v>0.68</v>
+      </c>
+      <c r="N31" s="43">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="D32" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="E32" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="F32" s="37">
+        <v>0.31</v>
+      </c>
+      <c r="G32" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="H32" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="I32" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="J32" s="37">
+        <v>-0.11</v>
+      </c>
+      <c r="K32" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="L32" s="37">
+        <v>0</v>
+      </c>
+      <c r="M32" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="N32" s="43">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="37">
+        <v>1.08</v>
+      </c>
+      <c r="D33" s="37">
+        <v>0.22</v>
+      </c>
+      <c r="E33" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F33" s="37">
+        <v>0.19</v>
+      </c>
+      <c r="G33" s="37">
+        <v>0.3</v>
+      </c>
+      <c r="H33" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="I33" s="37">
+        <v>0.34</v>
+      </c>
+      <c r="J33" s="37">
+        <v>-0.18</v>
+      </c>
+      <c r="K33" s="37">
+        <v>0.19</v>
+      </c>
+      <c r="L33" s="37">
+        <v>0.62</v>
+      </c>
+      <c r="M33" s="37">
+        <v>0.99</v>
+      </c>
+      <c r="N33" s="43">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="37">
+        <v>0.76</v>
+      </c>
+      <c r="D34" s="37">
+        <v>0.41</v>
+      </c>
+      <c r="E34" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="F34" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="G34" s="37">
+        <v>0.38</v>
+      </c>
+      <c r="H34" s="37">
+        <v>0.48</v>
+      </c>
+      <c r="I34" s="37">
+        <v>0.59</v>
+      </c>
+      <c r="J34" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="K34" s="37">
+        <v>0.77</v>
+      </c>
+      <c r="L34" s="37">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="M34" s="37">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N34" s="43">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="37">
+        <v>0.89</v>
+      </c>
+      <c r="D35" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="E35" s="37">
+        <v>-3.45</v>
+      </c>
+      <c r="F35" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G35" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H35" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="37">
+        <v>-6.79</v>
+      </c>
+      <c r="K35" s="37">
+        <v>-0.21</v>
+      </c>
+      <c r="L35" s="37">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="M35" s="37">
+        <v>0.53</v>
+      </c>
+      <c r="N35" s="43">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="37">
+        <v>1.45</v>
+      </c>
+      <c r="D36" s="37">
+        <v>0.44</v>
+      </c>
+      <c r="E36" s="37">
+        <v>-0.63</v>
+      </c>
+      <c r="F36" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G36" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H36" s="37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I36" s="37">
+        <v>0.47</v>
+      </c>
+      <c r="J36" s="37">
+        <v>0.09</v>
+      </c>
+      <c r="K36" s="37">
+        <v>-0.5</v>
+      </c>
+      <c r="L36" s="37">
+        <v>0</v>
+      </c>
+      <c r="M36" s="37">
+        <v>0.93</v>
+      </c>
+      <c r="N36" s="43">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="37">
+        <v>2.08</v>
+      </c>
+      <c r="D37" s="37">
+        <v>0.78</v>
+      </c>
+      <c r="E37" s="37">
+        <v>-0.41</v>
+      </c>
+      <c r="F37" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="G37" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="H37" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="I37" s="37">
+        <v>0.86</v>
+      </c>
+      <c r="J37" s="37">
+        <v>-0.01</v>
+      </c>
+      <c r="K37" s="37">
+        <v>0.65</v>
+      </c>
+      <c r="L37" s="37">
+        <v>-0.15</v>
+      </c>
+      <c r="M37" s="37">
+        <v>1.04</v>
+      </c>
+      <c r="N37" s="43">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="34">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="39">
+        <v>3.79</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0.72</v>
+      </c>
+      <c r="E38" s="39">
+        <v>4.03</v>
+      </c>
+      <c r="F38" s="39">
+        <v>0.46</v>
+      </c>
+      <c r="G38" s="39">
+        <v>2.93</v>
+      </c>
+      <c r="H38" s="39">
+        <v>0.93</v>
+      </c>
+      <c r="I38" s="39">
+        <v>1.85</v>
+      </c>
+      <c r="J38" s="39">
+        <v>0.13</v>
+      </c>
+      <c r="K38" s="39">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L38" s="39">
+        <v>0</v>
+      </c>
+      <c r="M38" s="39">
+        <v>2.4</v>
+      </c>
+      <c r="N38" s="44">
+        <v>1.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D05DF1A-6042-41E3-9EAF-863CF7A0811D}">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="35.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" customWidth="1"/>
+    <col min="6" max="7" width="46.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" customWidth="1"/>
+    <col min="10" max="10" width="28.7265625" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="28.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48">
+        <v>4.03</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48">
+        <v>1.69</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="50">
+        <v>3.91</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="50">
+        <v>1.33</v>
+      </c>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48">
+        <v>4.37</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48">
+        <v>1.2</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="49"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="50">
+        <v>4.82</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="50">
+        <v>1.93</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48">
+        <v>5.12</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48">
+        <v>1.88</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="49"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="50">
+        <v>5.22</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48">
+        <v>5.17</v>
+      </c>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48">
+        <v>1.83</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="49"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="50">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="50">
+        <v>1.82</v>
+      </c>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48">
+        <v>4.66</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48">
+        <v>1.78</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="49"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="50">
+        <v>4.78</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="50">
+        <v>1.77</v>
+      </c>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="46"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48">
+        <v>4.96</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48">
+        <v>1.73</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="49"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="36">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="50">
+        <v>5.8</v>
+      </c>
+      <c r="D13" s="50">
+        <v>5.48</v>
+      </c>
+      <c r="E13" s="50">
+        <v>0.69</v>
+      </c>
+      <c r="F13" s="50">
+        <v>3.46</v>
+      </c>
+      <c r="G13" s="50">
+        <v>2.54</v>
+      </c>
+      <c r="H13" s="50">
+        <v>2.82</v>
+      </c>
+      <c r="I13" s="50">
+        <v>3.41</v>
+      </c>
+      <c r="J13" s="50">
+        <v>2.73</v>
+      </c>
+      <c r="K13" s="50">
+        <v>3.7</v>
+      </c>
+      <c r="L13" s="50">
+        <v>5.75</v>
+      </c>
+      <c r="M13" s="50">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="N13" s="51">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="48">
+        <v>5.13</v>
+      </c>
+      <c r="D14" s="48">
+        <v>5.39</v>
+      </c>
+      <c r="E14" s="48">
+        <v>1.07</v>
+      </c>
+      <c r="F14" s="48">
+        <v>3.25</v>
+      </c>
+      <c r="G14" s="48">
+        <v>2.6</v>
+      </c>
+      <c r="H14" s="48">
+        <v>3.04</v>
+      </c>
+      <c r="I14" s="48">
+        <v>3.76</v>
+      </c>
+      <c r="J14" s="48">
+        <v>1.66</v>
+      </c>
+      <c r="K14" s="48">
+        <v>3.72</v>
+      </c>
+      <c r="L14" s="48">
+        <v>5.75</v>
+      </c>
+      <c r="M14" s="48">
+        <v>3.94</v>
+      </c>
+      <c r="N14" s="52">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="50">
+        <v>5.87</v>
+      </c>
+      <c r="D15" s="50">
+        <v>4.83</v>
+      </c>
+      <c r="E15" s="50">
+        <v>1.31</v>
+      </c>
+      <c r="F15" s="50">
+        <v>3.45</v>
+      </c>
+      <c r="G15" s="50">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H15" s="50">
+        <v>3.73</v>
+      </c>
+      <c r="I15" s="50">
+        <v>3.24</v>
+      </c>
+      <c r="J15" s="50">
+        <v>1.69</v>
+      </c>
+      <c r="K15" s="50">
+        <v>3.41</v>
+      </c>
+      <c r="L15" s="50">
+        <v>6.06</v>
+      </c>
+      <c r="M15" s="50">
+        <v>3.72</v>
+      </c>
+      <c r="N15" s="51">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="48">
+        <v>7.19</v>
+      </c>
+      <c r="D16" s="48">
+        <v>4.09</v>
+      </c>
+      <c r="E16" s="48">
+        <v>1.37</v>
+      </c>
+      <c r="F16" s="48">
+        <v>3.33</v>
+      </c>
+      <c r="G16" s="48">
+        <v>2.48</v>
+      </c>
+      <c r="H16" s="48">
+        <v>4.08</v>
+      </c>
+      <c r="I16" s="48">
+        <v>2.78</v>
+      </c>
+      <c r="J16" s="48">
+        <v>1.85</v>
+      </c>
+      <c r="K16" s="48">
+        <v>3.55</v>
+      </c>
+      <c r="L16" s="48">
+        <v>6.05</v>
+      </c>
+      <c r="M16" s="48">
+        <v>3.91</v>
+      </c>
+      <c r="N16" s="52">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="50">
+        <v>8.23</v>
+      </c>
+      <c r="D17" s="50">
+        <v>3.37</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="50">
+        <v>3.01</v>
+      </c>
+      <c r="G17" s="50">
+        <v>2.09</v>
+      </c>
+      <c r="H17" s="50">
+        <v>4.29</v>
+      </c>
+      <c r="I17" s="50">
+        <v>1.63</v>
+      </c>
+      <c r="J17" s="50">
+        <v>-1.89</v>
+      </c>
+      <c r="K17" s="50">
+        <v>3.23</v>
+      </c>
+      <c r="L17" s="50">
+        <v>5.97</v>
+      </c>
+      <c r="M17" s="50">
+        <v>3.59</v>
+      </c>
+      <c r="N17" s="51">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="48">
+        <v>7.57</v>
+      </c>
+      <c r="D18" s="48">
+        <v>2.85</v>
+      </c>
+      <c r="E18" s="48">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="48">
+        <v>2.37</v>
+      </c>
+      <c r="G18" s="48">
+        <v>0.04</v>
+      </c>
+      <c r="H18" s="48">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I18" s="48">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J18" s="48">
+        <v>-4.8899999999999997</v>
+      </c>
+      <c r="K18" s="48">
+        <v>3.07</v>
+      </c>
+      <c r="L18" s="48">
+        <v>5.96</v>
+      </c>
+      <c r="M18" s="48">
+        <v>3.37</v>
+      </c>
+      <c r="N18" s="52">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="50">
+        <v>6.55</v>
+      </c>
+      <c r="D19" s="50">
+        <v>2.8</v>
+      </c>
+      <c r="E19" s="50">
+        <v>-1.83</v>
+      </c>
+      <c r="F19" s="50">
+        <v>1.74</v>
+      </c>
+      <c r="G19" s="50">
+        <v>-0.74</v>
+      </c>
+      <c r="H19" s="50">
+        <v>4.53</v>
+      </c>
+      <c r="I19" s="50">
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="50">
+        <v>-4.83</v>
+      </c>
+      <c r="K19" s="50">
+        <v>2.36</v>
+      </c>
+      <c r="L19" s="50">
+        <v>5.96</v>
+      </c>
+      <c r="M19" s="50">
+        <v>3.23</v>
+      </c>
+      <c r="N19" s="51">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="48">
+        <v>5</v>
+      </c>
+      <c r="D20" s="48">
+        <v>2.95</v>
+      </c>
+      <c r="E20" s="48">
+        <v>-1.69</v>
+      </c>
+      <c r="F20" s="48">
+        <v>1.73</v>
+      </c>
+      <c r="G20" s="48">
+        <v>-0.79</v>
+      </c>
+      <c r="H20" s="48">
+        <v>4.95</v>
+      </c>
+      <c r="I20" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="J20" s="48">
+        <v>-5.16</v>
+      </c>
+      <c r="K20" s="48">
+        <v>1.89</v>
+      </c>
+      <c r="L20" s="48">
+        <v>5.96</v>
+      </c>
+      <c r="M20" s="48">
+        <v>3.56</v>
+      </c>
+      <c r="N20" s="52">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="50">
+        <v>4.66</v>
+      </c>
+      <c r="D21" s="50">
+        <v>3.36</v>
+      </c>
+      <c r="E21" s="50">
+        <v>-2.88</v>
+      </c>
+      <c r="F21" s="50">
+        <v>1.64</v>
+      </c>
+      <c r="G21" s="50">
+        <v>-0.88</v>
+      </c>
+      <c r="H21" s="50">
+        <v>5.37</v>
+      </c>
+      <c r="I21" s="50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J21" s="50">
+        <v>-1.58</v>
+      </c>
+      <c r="K21" s="50">
+        <v>2.33</v>
+      </c>
+      <c r="L21" s="50">
+        <v>2.16</v>
+      </c>
+      <c r="M21" s="50">
+        <v>3.41</v>
+      </c>
+      <c r="N21" s="51">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="48">
+        <v>4.13</v>
+      </c>
+      <c r="D22" s="48">
+        <v>3.69</v>
+      </c>
+      <c r="E22" s="48">
+        <v>-2.75</v>
+      </c>
+      <c r="F22" s="48">
+        <v>1.95</v>
+      </c>
+      <c r="G22" s="48">
+        <v>-0.84</v>
+      </c>
+      <c r="H22" s="48">
+        <v>5.38</v>
+      </c>
+      <c r="I22" s="48">
+        <v>1.07</v>
+      </c>
+      <c r="J22" s="48">
+        <v>0.95</v>
+      </c>
+      <c r="K22" s="48">
+        <v>2.74</v>
+      </c>
+      <c r="L22" s="48">
+        <v>-1.56</v>
+      </c>
+      <c r="M22" s="48">
+        <v>3.35</v>
+      </c>
+      <c r="N22" s="52">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="50">
+        <v>3.54</v>
+      </c>
+      <c r="D23" s="50">
+        <v>3.51</v>
+      </c>
+      <c r="E23" s="50">
+        <v>-2.92</v>
+      </c>
+      <c r="F23" s="50">
+        <v>1.69</v>
+      </c>
+      <c r="G23" s="50">
+        <v>-0.75</v>
+      </c>
+      <c r="H23" s="50">
+        <v>5.09</v>
+      </c>
+      <c r="I23" s="50">
+        <v>1.84</v>
+      </c>
+      <c r="J23" s="50">
+        <v>0.88</v>
+      </c>
+      <c r="K23" s="50">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L23" s="50">
+        <v>-4.03</v>
+      </c>
+      <c r="M23" s="50">
+        <v>3.48</v>
+      </c>
+      <c r="N23" s="51">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="48">
+        <v>4.09</v>
+      </c>
+      <c r="D24" s="48">
+        <v>3.22</v>
+      </c>
+      <c r="E24" s="48">
+        <v>-6.62</v>
+      </c>
+      <c r="F24" s="48">
+        <v>1.49</v>
+      </c>
+      <c r="G24" s="48">
+        <v>-1.17</v>
+      </c>
+      <c r="H24" s="48">
+        <v>5.01</v>
+      </c>
+      <c r="I24" s="48">
+        <v>1.71</v>
+      </c>
+      <c r="J24" s="48">
+        <v>0.48</v>
+      </c>
+      <c r="K24" s="48">
+        <v>1.4</v>
+      </c>
+      <c r="L24" s="48">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="M24" s="48">
+        <v>3.44</v>
+      </c>
+      <c r="N24" s="52">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="36">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="50">
+        <v>4.8</v>
+      </c>
+      <c r="D25" s="50">
+        <v>2.61</v>
+      </c>
+      <c r="E25" s="50">
+        <v>-3.94</v>
+      </c>
+      <c r="F25" s="50">
+        <v>1.81</v>
+      </c>
+      <c r="G25" s="50">
+        <v>-0.96</v>
+      </c>
+      <c r="H25" s="50">
+        <v>4.96</v>
+      </c>
+      <c r="I25" s="50">
+        <v>1.35</v>
+      </c>
+      <c r="J25" s="50">
+        <v>-0.1</v>
+      </c>
+      <c r="K25" s="50">
+        <v>0.68</v>
+      </c>
+      <c r="L25" s="50">
+        <v>-7.02</v>
+      </c>
+      <c r="M25" s="50">
+        <v>3.43</v>
+      </c>
+      <c r="N25" s="51">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="48">
+        <v>5.51</v>
+      </c>
+      <c r="D26" s="48">
+        <v>2.39</v>
+      </c>
+      <c r="E26" s="48">
+        <v>-4.54</v>
+      </c>
+      <c r="F26" s="48">
+        <v>1.9</v>
+      </c>
+      <c r="G26" s="48">
+        <v>-1.21</v>
+      </c>
+      <c r="H26" s="48">
+        <v>4.62</v>
+      </c>
+      <c r="I26" s="48">
+        <v>1.35</v>
+      </c>
+      <c r="J26" s="48">
+        <v>-0.64</v>
+      </c>
+      <c r="K26" s="48">
+        <v>-0.63</v>
+      </c>
+      <c r="L26" s="48">
+        <v>-7.02</v>
+      </c>
+      <c r="M26" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="N26" s="52">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="50">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D27" s="50">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E27" s="50">
+        <v>-3.1</v>
+      </c>
+      <c r="F27" s="50">
+        <v>1.7</v>
+      </c>
+      <c r="G27" s="50">
+        <v>-0.61</v>
+      </c>
+      <c r="H27" s="50">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I27" s="50">
+        <v>1.7</v>
+      </c>
+      <c r="J27" s="50">
+        <v>-0.63</v>
+      </c>
+      <c r="K27" s="50">
+        <v>-0.05</v>
+      </c>
+      <c r="L27" s="50">
+        <v>-8.1</v>
+      </c>
+      <c r="M27" s="50">
+        <v>3.36</v>
+      </c>
+      <c r="N27" s="51">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="48">
+        <v>3.92</v>
+      </c>
+      <c r="D28" s="48">
+        <v>2.44</v>
+      </c>
+      <c r="E28" s="48">
+        <v>-2.71</v>
+      </c>
+      <c r="F28" s="48">
+        <v>1.84</v>
+      </c>
+      <c r="G28" s="48">
+        <v>-0.61</v>
+      </c>
+      <c r="H28" s="48">
+        <v>4.38</v>
+      </c>
+      <c r="I28" s="48">
+        <v>2.21</v>
+      </c>
+      <c r="J28" s="48">
+        <v>-1.5</v>
+      </c>
+      <c r="K28" s="48">
+        <v>-0.2</v>
+      </c>
+      <c r="L28" s="48">
+        <v>-7.91</v>
+      </c>
+      <c r="M28" s="48">
+        <v>3.61</v>
+      </c>
+      <c r="N28" s="52">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="50">
+        <v>3.98</v>
+      </c>
+      <c r="D29" s="50">
+        <v>2.83</v>
+      </c>
+      <c r="E29" s="50">
+        <v>-2.68</v>
+      </c>
+      <c r="F29" s="50">
+        <v>2.13</v>
+      </c>
+      <c r="G29" s="50">
+        <v>-0.31</v>
+      </c>
+      <c r="H29" s="50">
+        <v>4.28</v>
+      </c>
+      <c r="I29" s="50">
+        <v>3.52</v>
+      </c>
+      <c r="J29" s="50">
+        <v>0.37</v>
+      </c>
+      <c r="K29" s="50">
+        <v>-0.16</v>
+      </c>
+      <c r="L29" s="50">
+        <v>-7.12</v>
+      </c>
+      <c r="M29" s="50">
+        <v>3.83</v>
+      </c>
+      <c r="N29" s="51">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="48">
+        <v>9.52</v>
+      </c>
+      <c r="D30" s="48">
+        <v>2.77</v>
+      </c>
+      <c r="E30" s="48">
+        <v>-2.33</v>
+      </c>
+      <c r="F30" s="48">
+        <v>2.58</v>
+      </c>
+      <c r="G30" s="48">
+        <v>1.73</v>
+      </c>
+      <c r="H30" s="48">
+        <v>4.12</v>
+      </c>
+      <c r="I30" s="48">
+        <v>4.34</v>
+      </c>
+      <c r="J30" s="48">
+        <v>0.32</v>
+      </c>
+      <c r="K30" s="48">
+        <v>-0.03</v>
+      </c>
+      <c r="L30" s="48">
+        <v>-7.11</v>
+      </c>
+      <c r="M30" s="48">
+        <v>4.76</v>
+      </c>
+      <c r="N30" s="52">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="50">
+        <v>8.52</v>
+      </c>
+      <c r="D31" s="50">
+        <v>2.8</v>
+      </c>
+      <c r="E31" s="50">
+        <v>-0.25</v>
+      </c>
+      <c r="F31" s="50">
+        <v>3.18</v>
+      </c>
+      <c r="G31" s="50">
+        <v>2.68</v>
+      </c>
+      <c r="H31" s="50">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="I31" s="50">
+        <v>5</v>
+      </c>
+      <c r="J31" s="50">
+        <v>0.11</v>
+      </c>
+      <c r="K31" s="50">
+        <v>0.18</v>
+      </c>
+      <c r="L31" s="50">
+        <v>-7.11</v>
+      </c>
+      <c r="M31" s="50">
+        <v>5.52</v>
+      </c>
+      <c r="N31" s="51">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="48">
+        <v>9.81</v>
+      </c>
+      <c r="D32" s="48">
+        <v>2.94</v>
+      </c>
+      <c r="E32" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="F32" s="48">
+        <v>3.34</v>
+      </c>
+      <c r="G32" s="48">
+        <v>2.92</v>
+      </c>
+      <c r="H32" s="48">
+        <v>3.72</v>
+      </c>
+      <c r="I32" s="48">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="J32" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="K32" s="48">
+        <v>0.52</v>
+      </c>
+      <c r="L32" s="48">
+        <v>-7.11</v>
+      </c>
+      <c r="M32" s="48">
+        <v>6.07</v>
+      </c>
+      <c r="N32" s="52">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="50">
+        <v>11.5</v>
+      </c>
+      <c r="D33" s="50">
+        <v>2.83</v>
+      </c>
+      <c r="E33" s="50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F33" s="50">
+        <v>3.47</v>
+      </c>
+      <c r="G33" s="50">
+        <v>3.28</v>
+      </c>
+      <c r="H33" s="50">
+        <v>3.26</v>
+      </c>
+      <c r="I33" s="50">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J33" s="50">
+        <v>-3.63</v>
+      </c>
+      <c r="K33" s="50">
+        <v>0.54</v>
+      </c>
+      <c r="L33" s="50">
+        <v>-3.16</v>
+      </c>
+      <c r="M33" s="50">
+        <v>6.93</v>
+      </c>
+      <c r="N33" s="51">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="48">
+        <v>12.4</v>
+      </c>
+      <c r="D34" s="48">
+        <v>3.1</v>
+      </c>
+      <c r="E34" s="48">
+        <v>0.92</v>
+      </c>
+      <c r="F34" s="48">
+        <v>3.35</v>
+      </c>
+      <c r="G34" s="48">
+        <v>3.55</v>
+      </c>
+      <c r="H34" s="48">
+        <v>3.46</v>
+      </c>
+      <c r="I34" s="48">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="J34" s="48">
+        <v>-5.95</v>
+      </c>
+      <c r="K34" s="48">
+        <v>1.33</v>
+      </c>
+      <c r="L34" s="48">
+        <v>-2.69</v>
+      </c>
+      <c r="M34" s="48">
+        <v>7.22</v>
+      </c>
+      <c r="N34" s="52">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="50">
+        <v>13.76</v>
+      </c>
+      <c r="D35" s="50">
+        <v>3.46</v>
+      </c>
+      <c r="E35" s="50">
+        <v>-2.44</v>
+      </c>
+      <c r="F35" s="50">
+        <v>3.72</v>
+      </c>
+      <c r="G35" s="50">
+        <v>3.81</v>
+      </c>
+      <c r="H35" s="50">
+        <v>3.91</v>
+      </c>
+      <c r="I35" s="50">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J35" s="50">
+        <v>-12.23</v>
+      </c>
+      <c r="K35" s="50">
+        <v>1.06</v>
+      </c>
+      <c r="L35" s="50">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="M35" s="50">
+        <v>7.55</v>
+      </c>
+      <c r="N35" s="51">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="48">
+        <v>15.34</v>
+      </c>
+      <c r="D36" s="48">
+        <v>3.74</v>
+      </c>
+      <c r="E36" s="48">
+        <v>0.68</v>
+      </c>
+      <c r="F36" s="48">
+        <v>3.89</v>
+      </c>
+      <c r="G36" s="48">
+        <v>4.42</v>
+      </c>
+      <c r="H36" s="48">
+        <v>4.08</v>
+      </c>
+      <c r="I36" s="48">
+        <v>4.91</v>
+      </c>
+      <c r="J36" s="48">
+        <v>-11.75</v>
+      </c>
+      <c r="K36" s="48">
+        <v>1.08</v>
+      </c>
+      <c r="L36" s="48">
+        <v>0.75</v>
+      </c>
+      <c r="M36" s="48">
+        <v>8.24</v>
+      </c>
+      <c r="N36" s="52">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="36">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="50">
+        <v>17.23</v>
+      </c>
+      <c r="D37" s="50">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E37" s="50">
+        <v>-2.6</v>
+      </c>
+      <c r="F37" s="50">
+        <v>3.68</v>
+      </c>
+      <c r="G37" s="50">
+        <v>4.34</v>
+      </c>
+      <c r="H37" s="50">
+        <v>3.98</v>
+      </c>
+      <c r="I37" s="50">
+        <v>5.69</v>
+      </c>
+      <c r="J37" s="50">
+        <v>-12.1</v>
+      </c>
+      <c r="K37" s="50">
+        <v>1.04</v>
+      </c>
+      <c r="L37" s="50">
+        <v>2.76</v>
+      </c>
+      <c r="M37" s="50">
+        <v>8.83</v>
+      </c>
+      <c r="N37" s="51">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="38">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="48">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="D38" s="48">
+        <v>5.15</v>
+      </c>
+      <c r="E38" s="48">
+        <v>1.75</v>
+      </c>
+      <c r="F38" s="48">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G38" s="48">
+        <v>7.12</v>
+      </c>
+      <c r="H38" s="48">
+        <v>4.68</v>
+      </c>
+      <c r="I38" s="48">
+        <v>6.9</v>
+      </c>
+      <c r="J38" s="48">
+        <v>-11.84</v>
+      </c>
+      <c r="K38" s="48">
+        <v>2.46</v>
+      </c>
+      <c r="L38" s="48">
+        <v>2.76</v>
+      </c>
+      <c r="M38" s="48">
+        <v>10.73</v>
+      </c>
+      <c r="N38" s="52">
+        <v>5.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>